--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208F32D-213E-4F06-A703-504E31A996E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E6B810-CDBD-4E33-808C-8E64A8E3382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>Source</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Close contact</t>
   </si>
   <si>
-    <t>#893395</t>
-  </si>
-  <si>
     <t>Q10</t>
   </si>
   <si>
@@ -214,34 +211,58 @@
     <t>Queensland (Prince Charles)</t>
   </si>
   <si>
-    <t>#f5ecf5</t>
-  </si>
-  <si>
-    <t>#ebd9eb</t>
-  </si>
-  <si>
-    <t>#e0c7e2</t>
-  </si>
-  <si>
-    <t>#d6b4d8</t>
-  </si>
-  <si>
-    <t>#cba2ce</t>
-  </si>
-  <si>
-    <t>#c190c5</t>
-  </si>
-  <si>
-    <t>#b67ebb</t>
-  </si>
-  <si>
-    <t>#ab6cb2</t>
-  </si>
-  <si>
-    <t>#a05aa8</t>
-  </si>
-  <si>
-    <t>#95479f</t>
+    <t>#d0aad2</t>
+  </si>
+  <si>
+    <t>#9e57a6</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Queensland (Brisbane Airport)</t>
+  </si>
+  <si>
+    <t>Brisbane Airport Worker</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>#f7f1f7</t>
+  </si>
+  <si>
+    <t>#f0e2f0</t>
+  </si>
+  <si>
+    <t>#e8d4e9</t>
+  </si>
+  <si>
+    <t>#e0c6e1</t>
+  </si>
+  <si>
+    <t>#d8b8da</t>
+  </si>
+  <si>
+    <t>#c89ccb</t>
+  </si>
+  <si>
+    <t>#c08ec3</t>
+  </si>
+  <si>
+    <t>#b780bc</t>
+  </si>
+  <si>
+    <t>#af73b5</t>
+  </si>
+  <si>
+    <t>#a765ad</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -311,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -636,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -807,7 +828,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -827,7 +848,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -847,13 +868,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -870,16 +891,16 @@
         <v>44376</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -890,16 +911,16 @@
         <v>44377</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -910,15 +931,55 @@
         <v>44377</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -934,11 +995,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -946,7 +1005,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -960,12 +1019,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -973,46 +1032,13 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1021,12 +1047,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1035,12 +1061,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1049,12 +1075,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1063,12 +1089,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1077,115 +1103,115 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44378</v>
       </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44379</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44380</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44381</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1196,7 +1222,7 @@
         <v>44382</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -1207,7 +1233,7 @@
         <v>44383</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -1218,7 +1244,7 @@
         <v>44384</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -1229,7 +1255,7 @@
         <v>44385</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
@@ -1251,7 +1277,7 @@
         <v>44387</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1262,7 +1288,7 @@
         <v>44388</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1273,7 +1299,7 @@
         <v>44389</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1282,6 +1308,9 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44390</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E6B810-CDBD-4E33-808C-8E64A8E3382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080AE4E5-9F2E-42CC-A5DA-F5E45BC30F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
   <si>
     <t>Source</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Queensland (Prince Charles)</t>
   </si>
   <si>
-    <t>#d0aad2</t>
-  </si>
-  <si>
     <t>#9e57a6</t>
   </si>
   <si>
@@ -229,40 +226,61 @@
     <t>Brisbane Airport Worker</t>
   </si>
   <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>#f7f1f7</t>
-  </si>
-  <si>
-    <t>#f0e2f0</t>
-  </si>
-  <si>
-    <t>#e8d4e9</t>
-  </si>
-  <si>
-    <t>#e0c6e1</t>
-  </si>
-  <si>
-    <t>#d8b8da</t>
-  </si>
-  <si>
-    <t>#c89ccb</t>
-  </si>
-  <si>
-    <t>#c08ec3</t>
-  </si>
-  <si>
-    <t>#b780bc</t>
-  </si>
-  <si>
-    <t>#af73b5</t>
-  </si>
-  <si>
-    <t>#a765ad</t>
-  </si>
-  <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>#f8f2f8</t>
+  </si>
+  <si>
+    <t>#f1e4f1</t>
+  </si>
+  <si>
+    <t>#ead7ea</t>
+  </si>
+  <si>
+    <t>#e2cae3</t>
+  </si>
+  <si>
+    <t>#dbbddc</t>
+  </si>
+  <si>
+    <t>#d4b0d6</t>
+  </si>
+  <si>
+    <t>#cca3cf</t>
+  </si>
+  <si>
+    <t>#c597c8</t>
+  </si>
+  <si>
+    <t>#bd8ac1</t>
+  </si>
+  <si>
+    <t>#b57dba</t>
+  </si>
+  <si>
+    <t>#ae71b4</t>
+  </si>
+  <si>
+    <t>#a664ad</t>
+  </si>
+  <si>
+    <t>A2 m</t>
+  </si>
+  <si>
+    <t>Isolated</t>
+  </si>
+  <si>
+    <t>Not isolated</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>1 w</t>
+  </si>
+  <si>
+    <t>2 w</t>
   </si>
 </sst>
 </file>
@@ -332,9 +350,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1A404655-FE9B-4B0A-80BF-03F432FB739E}" name="Target"/>
@@ -342,6 +360,7 @@
     <tableColumn id="5" xr3:uid="{5A5064EE-FA20-4C72-A1EA-5267C1288E45}" name="Sub-Cluster"/>
     <tableColumn id="6" xr3:uid="{3B657D6E-5072-40F9-AE8E-5668421641DE}" name="Link Label"/>
     <tableColumn id="11" xr3:uid="{8662E1B9-B1C5-4B63-8E8E-4BEEF60CF32F}" name="Variant"/>
+    <tableColumn id="7" xr3:uid="{3CE5257F-25CE-4313-B5A2-E9EB463CC34A}" name="Isolated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -657,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -670,9 +689,10 @@
     <col min="5" max="5" width="3.796875" customWidth="1"/>
     <col min="6" max="6" width="16.3984375" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -694,8 +714,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44367</v>
       </c>
@@ -711,8 +734,11 @@
       <c r="G2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44369</v>
       </c>
@@ -731,8 +757,11 @@
       <c r="G3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44371</v>
       </c>
@@ -751,8 +780,11 @@
       <c r="G4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44371</v>
       </c>
@@ -771,8 +803,11 @@
       <c r="G5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44371</v>
       </c>
@@ -791,8 +826,11 @@
       <c r="G6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44372</v>
       </c>
@@ -808,8 +846,11 @@
       <c r="G7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44372</v>
       </c>
@@ -825,8 +866,11 @@
       <c r="G8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44374</v>
       </c>
@@ -845,8 +889,11 @@
       <c r="G9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44374</v>
       </c>
@@ -865,8 +912,11 @@
       <c r="G10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44375</v>
       </c>
@@ -885,8 +935,11 @@
       <c r="G11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44376</v>
       </c>
@@ -905,8 +958,11 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44377</v>
       </c>
@@ -925,16 +981,19 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44377</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -942,28 +1001,34 @@
       <c r="G14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44378</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
       <c r="G15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44378</v>
       </c>
@@ -971,7 +1036,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -981,6 +1046,75 @@
       </c>
       <c r="G16" t="s">
         <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:R2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1024,7 +1160,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1038,7 +1174,7 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1052,7 +1188,7 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1066,7 +1202,7 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1080,7 +1216,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1094,7 +1230,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1175,7 +1311,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1187,6 +1323,9 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080AE4E5-9F2E-42CC-A5DA-F5E45BC30F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEEF5C-D7C3-4094-B94C-3A4502695D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
   <si>
     <t>Source</t>
   </si>
@@ -229,42 +229,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>#f8f2f8</t>
-  </si>
-  <si>
-    <t>#f1e4f1</t>
-  </si>
-  <si>
-    <t>#ead7ea</t>
-  </si>
-  <si>
-    <t>#e2cae3</t>
-  </si>
-  <si>
-    <t>#dbbddc</t>
-  </si>
-  <si>
-    <t>#d4b0d6</t>
-  </si>
-  <si>
-    <t>#cca3cf</t>
-  </si>
-  <si>
-    <t>#c597c8</t>
-  </si>
-  <si>
-    <t>#bd8ac1</t>
-  </si>
-  <si>
-    <t>#b57dba</t>
-  </si>
-  <si>
-    <t>#ae71b4</t>
-  </si>
-  <si>
-    <t>#a664ad</t>
-  </si>
-  <si>
     <t>A2 m</t>
   </si>
   <si>
@@ -277,10 +241,73 @@
     <t>Q12</t>
   </si>
   <si>
-    <t>1 w</t>
-  </si>
-  <si>
-    <t>2 w</t>
+    <t>#f8f3f9</t>
+  </si>
+  <si>
+    <t>#f2e6f2</t>
+  </si>
+  <si>
+    <t>#ebdaec</t>
+  </si>
+  <si>
+    <t>#e4cee5</t>
+  </si>
+  <si>
+    <t>#dec2df</t>
+  </si>
+  <si>
+    <t>#d7b6d9</t>
+  </si>
+  <si>
+    <t>#d0aad2</t>
+  </si>
+  <si>
+    <t>#c99ecc</t>
+  </si>
+  <si>
+    <t>#c292c6</t>
+  </si>
+  <si>
+    <t>#bb86bf</t>
+  </si>
+  <si>
+    <t>#b47bb9</t>
+  </si>
+  <si>
+    <t>#ad6fb3</t>
+  </si>
+  <si>
+    <t>#a563ac</t>
+  </si>
+  <si>
+    <t>Q13 w</t>
+  </si>
+  <si>
+    <t>Carindale Greek Community Centre</t>
+  </si>
+  <si>
+    <t>Q14 w</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16 m50</t>
+  </si>
+  <si>
+    <t>C3 w50</t>
+  </si>
+  <si>
+    <t>Hospital Worker</t>
+  </si>
+  <si>
+    <t>Q17 m29</t>
+  </si>
+  <si>
+    <t>1 m50</t>
+  </si>
+  <si>
+    <t>Airport Worker, Lives in Carindale</t>
   </si>
 </sst>
 </file>
@@ -350,8 +377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0">
+  <autoFilter ref="A1:H24" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -676,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -687,7 +714,7 @@
     <col min="1" max="1" width="11.265625" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -715,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -735,7 +762,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -758,7 +785,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -781,7 +808,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -804,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -827,7 +854,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -847,7 +874,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -867,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -890,7 +917,7 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -913,7 +940,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -936,7 +963,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -959,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -982,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1002,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1010,7 +1037,7 @@
         <v>44378</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -1025,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1036,7 +1063,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -1048,7 +1075,7 @@
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1056,10 +1083,10 @@
         <v>44379</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -1071,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1079,19 +1106,22 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1099,22 +1129,131 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
-        <v>78</v>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1131,9 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:R2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1160,7 +1297,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1174,7 +1311,7 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1188,7 +1325,7 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1202,7 +1339,7 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1216,7 +1353,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1230,7 +1367,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1244,7 +1381,7 @@
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1255,7 +1392,7 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1269,7 +1406,7 @@
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1283,7 +1420,7 @@
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1297,7 +1434,7 @@
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1311,7 +1448,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1325,7 +1462,7 @@
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1337,6 +1474,9 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44380</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEEF5C-D7C3-4094-B94C-3A4502695D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572C383-7749-429A-AC0D-4D978323AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>Source</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Q11</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Queensland (Brisbane Airport)</t>
   </si>
   <si>
@@ -241,45 +238,6 @@
     <t>Q12</t>
   </si>
   <si>
-    <t>#f8f3f9</t>
-  </si>
-  <si>
-    <t>#f2e6f2</t>
-  </si>
-  <si>
-    <t>#ebdaec</t>
-  </si>
-  <si>
-    <t>#e4cee5</t>
-  </si>
-  <si>
-    <t>#dec2df</t>
-  </si>
-  <si>
-    <t>#d7b6d9</t>
-  </si>
-  <si>
-    <t>#d0aad2</t>
-  </si>
-  <si>
-    <t>#c99ecc</t>
-  </si>
-  <si>
-    <t>#c292c6</t>
-  </si>
-  <si>
-    <t>#bb86bf</t>
-  </si>
-  <si>
-    <t>#b47bb9</t>
-  </si>
-  <si>
-    <t>#ad6fb3</t>
-  </si>
-  <si>
-    <t>#a563ac</t>
-  </si>
-  <si>
     <t>Q13 w</t>
   </si>
   <si>
@@ -295,19 +253,58 @@
     <t>Q16 m50</t>
   </si>
   <si>
-    <t>C3 w50</t>
-  </si>
-  <si>
     <t>Hospital Worker</t>
   </si>
   <si>
     <t>Q17 m29</t>
   </si>
   <si>
-    <t>1 m50</t>
-  </si>
-  <si>
-    <t>Airport Worker, Lives in Carindale</t>
+    <t>#f9f3f9</t>
+  </si>
+  <si>
+    <t>#f3e8f3</t>
+  </si>
+  <si>
+    <t>#ecdced</t>
+  </si>
+  <si>
+    <t>#e6d1e7</t>
+  </si>
+  <si>
+    <t>#e0c6e1</t>
+  </si>
+  <si>
+    <t>#d9bbdb</t>
+  </si>
+  <si>
+    <t>#d3afd5</t>
+  </si>
+  <si>
+    <t>#cda4cf</t>
+  </si>
+  <si>
+    <t>#c699c9</t>
+  </si>
+  <si>
+    <t>#c08ec3</t>
+  </si>
+  <si>
+    <t>#b983bd</t>
+  </si>
+  <si>
+    <t>#b278b8</t>
+  </si>
+  <si>
+    <t>#ac6db2</t>
+  </si>
+  <si>
+    <t>#a562ac</t>
+  </si>
+  <si>
+    <t>Q18 w50</t>
+  </si>
+  <si>
+    <t>Q19</t>
   </si>
 </sst>
 </file>
@@ -706,7 +703,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -742,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -762,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -785,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -808,7 +805,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -831,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -854,7 +851,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -874,7 +871,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -894,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -917,7 +914,7 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -940,7 +937,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -963,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -986,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1009,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1029,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1037,22 +1034,22 @@
         <v>44378</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1063,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -1075,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1083,22 +1080,22 @@
         <v>44379</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1106,22 +1103,22 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1129,10 +1126,10 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -1144,7 +1141,7 @@
         <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1152,10 +1149,10 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -1164,7 +1161,7 @@
         <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1172,10 +1169,10 @@
         <v>44380</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -1184,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1192,22 +1189,22 @@
         <v>44380</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1218,42 +1215,42 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1297,7 +1296,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1311,7 +1310,7 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1325,7 +1324,7 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1339,7 +1338,7 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1353,7 +1352,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1367,7 +1366,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1381,7 +1380,7 @@
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1392,7 +1391,7 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1406,7 +1405,7 @@
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1420,7 +1419,7 @@
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1434,7 +1433,7 @@
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1448,7 +1447,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1462,7 +1461,7 @@
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1476,7 +1475,7 @@
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1488,6 +1487,9 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44381</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572C383-7749-429A-AC0D-4D978323AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EED54-991E-4472-BFE6-3E3BA65F25B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
   <si>
     <t>Source</t>
   </si>
@@ -253,58 +253,73 @@
     <t>Q16 m50</t>
   </si>
   <si>
-    <t>Hospital Worker</t>
-  </si>
-  <si>
     <t>Q17 m29</t>
   </si>
   <si>
-    <t>#f9f3f9</t>
-  </si>
-  <si>
-    <t>#f3e8f3</t>
-  </si>
-  <si>
-    <t>#ecdced</t>
-  </si>
-  <si>
-    <t>#e6d1e7</t>
-  </si>
-  <si>
-    <t>#e0c6e1</t>
-  </si>
-  <si>
-    <t>#d9bbdb</t>
-  </si>
-  <si>
-    <t>#d3afd5</t>
-  </si>
-  <si>
-    <t>#cda4cf</t>
-  </si>
-  <si>
-    <t>#c699c9</t>
-  </si>
-  <si>
-    <t>#c08ec3</t>
-  </si>
-  <si>
-    <t>#b983bd</t>
-  </si>
-  <si>
-    <t>#b278b8</t>
-  </si>
-  <si>
-    <t>#ac6db2</t>
-  </si>
-  <si>
-    <t>#a562ac</t>
-  </si>
-  <si>
     <t>Q18 w50</t>
   </si>
   <si>
     <t>Q19</t>
+  </si>
+  <si>
+    <t>Zeus Street Greek Kitchen</t>
+  </si>
+  <si>
+    <t>Q20 w</t>
+  </si>
+  <si>
+    <t>Q21 child</t>
+  </si>
+  <si>
+    <t>Q22 w</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>#f9f4f9</t>
+  </si>
+  <si>
+    <t>#f3e9f4</t>
+  </si>
+  <si>
+    <t>#eedfee</t>
+  </si>
+  <si>
+    <t>#e8d4e9</t>
+  </si>
+  <si>
+    <t>#e2c9e3</t>
+  </si>
+  <si>
+    <t>#dcbfdd</t>
+  </si>
+  <si>
+    <t>#d6b4d8</t>
+  </si>
+  <si>
+    <t>#d0aad2</t>
+  </si>
+  <si>
+    <t>#ca9fcd</t>
+  </si>
+  <si>
+    <t>#c495c7</t>
+  </si>
+  <si>
+    <t>#be8bc2</t>
+  </si>
+  <si>
+    <t>#b780bc</t>
+  </si>
+  <si>
+    <t>#b176b7</t>
+  </si>
+  <si>
+    <t>#ab6cb1</t>
+  </si>
+  <si>
+    <t>#a461ab</t>
   </si>
 </sst>
 </file>
@@ -374,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0">
-  <autoFilter ref="A1:H24" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0">
+  <autoFilter ref="A1:H28" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -700,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1169,13 +1184,16 @@
         <v>44380</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -1192,7 +1210,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -1212,16 +1230,16 @@
         <v>44380</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1235,10 +1253,10 @@
         <v>44381</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1250,6 +1268,95 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1265,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1277,7 +1384,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1291,12 +1398,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1304,13 +1411,61 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1319,12 +1474,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1333,12 +1488,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1347,12 +1502,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1361,12 +1516,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1375,23 +1530,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1400,12 +1555,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1414,12 +1569,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1428,12 +1583,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1442,12 +1597,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1456,12 +1611,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1470,12 +1625,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1484,12 +1639,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1501,6 +1656,9 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EED54-991E-4472-BFE6-3E3BA65F25B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59686956-DCBA-4A13-863F-AEF63DB1EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>Source</t>
   </si>
@@ -277,49 +277,55 @@
     <t>Q23</t>
   </si>
   <si>
-    <t>#f9f4f9</t>
-  </si>
-  <si>
-    <t>#f3e9f4</t>
-  </si>
-  <si>
-    <t>#eedfee</t>
-  </si>
-  <si>
-    <t>#e8d4e9</t>
-  </si>
-  <si>
-    <t>#e2c9e3</t>
-  </si>
-  <si>
-    <t>#dcbfdd</t>
-  </si>
-  <si>
-    <t>#d6b4d8</t>
-  </si>
-  <si>
-    <t>#d0aad2</t>
-  </si>
-  <si>
-    <t>#ca9fcd</t>
-  </si>
-  <si>
-    <t>#c495c7</t>
-  </si>
-  <si>
-    <t>#be8bc2</t>
-  </si>
-  <si>
-    <t>#b780bc</t>
-  </si>
-  <si>
-    <t>#b176b7</t>
-  </si>
-  <si>
-    <t>#ab6cb1</t>
-  </si>
-  <si>
     <t>#a461ab</t>
+  </si>
+  <si>
+    <t>Q24 w</t>
+  </si>
+  <si>
+    <t>#faf5fa</t>
+  </si>
+  <si>
+    <t>#f4ebf4</t>
+  </si>
+  <si>
+    <t>#efe1ef</t>
+  </si>
+  <si>
+    <t>#e9d6ea</t>
+  </si>
+  <si>
+    <t>#e4cce5</t>
+  </si>
+  <si>
+    <t>#dec3df</t>
+  </si>
+  <si>
+    <t>#d8b9da</t>
+  </si>
+  <si>
+    <t>#d3afd5</t>
+  </si>
+  <si>
+    <t>#cda5d0</t>
+  </si>
+  <si>
+    <t>#c79bca</t>
+  </si>
+  <si>
+    <t>#c291c5</t>
+  </si>
+  <si>
+    <t>#bc88c0</t>
+  </si>
+  <si>
+    <t>#b67ebb</t>
+  </si>
+  <si>
+    <t>#b074b6</t>
+  </si>
+  <si>
+    <t>#aa6bb0</t>
   </si>
 </sst>
 </file>
@@ -389,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0">
-  <autoFilter ref="A1:H28" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1360,6 +1366,26 @@
         <v>65</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1384,7 +1410,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1398,12 +1424,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1412,60 +1438,63 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1474,12 +1503,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1488,12 +1517,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1502,12 +1531,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1516,12 +1545,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1530,23 +1559,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1555,12 +1584,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1569,12 +1598,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1583,12 +1612,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1597,12 +1626,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1611,12 +1640,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1625,12 +1654,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1639,12 +1668,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1658,7 +1687,7 @@
         <v>44382</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1670,6 +1699,9 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44383</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59686956-DCBA-4A13-863F-AEF63DB1EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA310F4-02AD-4A23-9904-C28026B14A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
   <si>
     <t>Source</t>
   </si>
@@ -277,55 +277,70 @@
     <t>Q23</t>
   </si>
   <si>
-    <t>#a461ab</t>
-  </si>
-  <si>
     <t>Q24 w</t>
   </si>
   <si>
-    <t>#faf5fa</t>
-  </si>
-  <si>
-    <t>#f4ebf4</t>
-  </si>
-  <si>
-    <t>#efe1ef</t>
-  </si>
-  <si>
-    <t>#e9d6ea</t>
-  </si>
-  <si>
-    <t>#e4cce5</t>
-  </si>
-  <si>
-    <t>#dec3df</t>
-  </si>
-  <si>
-    <t>#d8b9da</t>
-  </si>
-  <si>
-    <t>#d3afd5</t>
-  </si>
-  <si>
     <t>#cda5d0</t>
   </si>
   <si>
-    <t>#c79bca</t>
-  </si>
-  <si>
-    <t>#c291c5</t>
-  </si>
-  <si>
-    <t>#bc88c0</t>
-  </si>
-  <si>
-    <t>#b67ebb</t>
-  </si>
-  <si>
-    <t>#b074b6</t>
-  </si>
-  <si>
-    <t>#aa6bb0</t>
+    <t>#faf6fa</t>
+  </si>
+  <si>
+    <t>#f5edf6</t>
+  </si>
+  <si>
+    <t>#f0e4f1</t>
+  </si>
+  <si>
+    <t>#ebdbec</t>
+  </si>
+  <si>
+    <t>#e6d2e7</t>
+  </si>
+  <si>
+    <t>#e1c9e3</t>
+  </si>
+  <si>
+    <t>#dcc0de</t>
+  </si>
+  <si>
+    <t>#d7b7d9</t>
+  </si>
+  <si>
+    <t>#d2aed5</t>
+  </si>
+  <si>
+    <t>#c89dcb</t>
+  </si>
+  <si>
+    <t>#c394c7</t>
+  </si>
+  <si>
+    <t>#be8bc2</t>
+  </si>
+  <si>
+    <t>#b983bd</t>
+  </si>
+  <si>
+    <t>#b37ab9</t>
+  </si>
+  <si>
+    <t>#ae71b4</t>
+  </si>
+  <si>
+    <t>#a969af</t>
+  </si>
+  <si>
+    <t>#a360ab</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
   </si>
 </sst>
 </file>
@@ -395,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0">
+  <autoFilter ref="A1:H32" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -721,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H31" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1374,7 +1389,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -1383,6 +1398,66 @@
         <v>41</v>
       </c>
       <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1398,11 +1473,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1410,7 +1483,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44367</v>
       </c>
@@ -1437,59 +1510,8 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44368</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44369</v>
       </c>
@@ -1517,7 +1539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44370</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44371</v>
       </c>
@@ -1545,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44372</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44373</v>
       </c>
@@ -1570,7 +1592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44374</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44375</v>
       </c>
@@ -1598,12 +1620,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1612,12 +1634,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1626,12 +1648,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1640,12 +1662,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1654,12 +1676,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1668,12 +1690,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1687,7 +1709,7 @@
         <v>44382</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1701,7 +1723,7 @@
         <v>44383</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1714,6 +1736,9 @@
       <c r="A19" s="1">
         <v>44384</v>
       </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -1724,6 +1749,9 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA310F4-02AD-4A23-9904-C28026B14A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8973A-22B2-47F5-BFD5-8FB3CC03BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
   <si>
     <t>Source</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Circle</t>
   </si>
   <si>
-    <t>Diamond</t>
-  </si>
-  <si>
     <t>#FFECA0</t>
   </si>
   <si>
@@ -280,60 +277,6 @@
     <t>Q24 w</t>
   </si>
   <si>
-    <t>#cda5d0</t>
-  </si>
-  <si>
-    <t>#faf6fa</t>
-  </si>
-  <si>
-    <t>#f5edf6</t>
-  </si>
-  <si>
-    <t>#f0e4f1</t>
-  </si>
-  <si>
-    <t>#ebdbec</t>
-  </si>
-  <si>
-    <t>#e6d2e7</t>
-  </si>
-  <si>
-    <t>#e1c9e3</t>
-  </si>
-  <si>
-    <t>#dcc0de</t>
-  </si>
-  <si>
-    <t>#d7b7d9</t>
-  </si>
-  <si>
-    <t>#d2aed5</t>
-  </si>
-  <si>
-    <t>#c89dcb</t>
-  </si>
-  <si>
-    <t>#c394c7</t>
-  </si>
-  <si>
-    <t>#be8bc2</t>
-  </si>
-  <si>
-    <t>#b983bd</t>
-  </si>
-  <si>
-    <t>#b37ab9</t>
-  </si>
-  <si>
-    <t>#ae71b4</t>
-  </si>
-  <si>
-    <t>#a969af</t>
-  </si>
-  <si>
-    <t>#a360ab</t>
-  </si>
-  <si>
     <t>Q25</t>
   </si>
   <si>
@@ -341,6 +284,81 @@
   </si>
   <si>
     <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>#fbf8fb</t>
+  </si>
+  <si>
+    <t>#f7f1f7</t>
+  </si>
+  <si>
+    <t>#f3e9f4</t>
+  </si>
+  <si>
+    <t>#f0e2f0</t>
+  </si>
+  <si>
+    <t>#ecdbec</t>
+  </si>
+  <si>
+    <t>#e8d4e9</t>
+  </si>
+  <si>
+    <t>#e4cde5</t>
+  </si>
+  <si>
+    <t>#e0c6e1</t>
+  </si>
+  <si>
+    <t>#dcbfdd</t>
+  </si>
+  <si>
+    <t>#d8b8da</t>
+  </si>
+  <si>
+    <t>#d4b1d6</t>
+  </si>
+  <si>
+    <t>#d0aad2</t>
+  </si>
+  <si>
+    <t>#cca3ce</t>
+  </si>
+  <si>
+    <t>#c89ccb</t>
+  </si>
+  <si>
+    <t>#c495c7</t>
+  </si>
+  <si>
+    <t>#c08ec3</t>
+  </si>
+  <si>
+    <t>#bb87c0</t>
+  </si>
+  <si>
+    <t>#b780bc</t>
+  </si>
+  <si>
+    <t>#b37ab8</t>
+  </si>
+  <si>
+    <t>#af73b5</t>
+  </si>
+  <si>
+    <t>#ab6cb1</t>
+  </si>
+  <si>
+    <t>#a765ad</t>
+  </si>
+  <si>
+    <t>#a25eaa</t>
   </si>
 </sst>
 </file>
@@ -410,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0">
-  <autoFilter ref="A1:H32" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0">
+  <autoFilter ref="A1:H34" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -427,8 +445,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -736,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H32"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -775,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -783,19 +801,19 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -803,22 +821,22 @@
         <v>44369</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -826,22 +844,22 @@
         <v>44371</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -849,22 +867,22 @@
         <v>44371</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -872,22 +890,22 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -895,19 +913,19 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -915,19 +933,19 @@
         <v>44372</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -935,22 +953,22 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -958,22 +976,22 @@
         <v>44374</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -981,22 +999,22 @@
         <v>44375</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1004,22 +1022,22 @@
         <v>44376</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1027,22 +1045,22 @@
         <v>44377</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1050,19 +1068,19 @@
         <v>44377</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1070,22 +1088,22 @@
         <v>44378</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1093,22 +1111,22 @@
         <v>44378</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1116,22 +1134,22 @@
         <v>44379</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1139,22 +1157,22 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1162,22 +1180,22 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1185,19 +1203,19 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1205,22 +1223,22 @@
         <v>44380</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1228,22 +1246,22 @@
         <v>44380</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1251,22 +1269,22 @@
         <v>44380</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1274,22 +1292,22 @@
         <v>44381</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1297,22 +1315,22 @@
         <v>44382</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1320,22 +1338,22 @@
         <v>44382</v>
       </c>
       <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1343,22 +1361,22 @@
         <v>44382</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1366,19 +1384,19 @@
         <v>44382</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1386,19 +1404,19 @@
         <v>44383</v>
       </c>
       <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1406,19 +1424,19 @@
         <v>44384</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -1426,19 +1444,19 @@
         <v>44385</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1446,19 +1464,65 @@
         <v>44385</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1502,7 +1566,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1516,10 +1580,10 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -1530,10 +1594,10 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1544,10 +1608,10 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -1558,7 +1622,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1572,7 +1636,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1586,7 +1650,7 @@
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1597,7 +1661,7 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1611,7 +1675,7 @@
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1625,7 +1689,7 @@
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1639,7 +1703,7 @@
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1653,7 +1717,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1667,7 +1731,7 @@
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1681,7 +1745,7 @@
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1695,7 +1759,7 @@
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1709,7 +1773,7 @@
         <v>44382</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1723,7 +1787,7 @@
         <v>44383</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1737,7 +1801,7 @@
         <v>44384</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1751,7 +1815,7 @@
         <v>44385</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1764,8 +1828,8 @@
       <c r="A21" s="1">
         <v>44386</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
+      <c r="B21" t="s">
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1775,8 +1839,8 @@
       <c r="A22" s="1">
         <v>44387</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
+      <c r="B22" t="s">
+        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1786,8 +1850,8 @@
       <c r="A23" s="1">
         <v>44388</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
+      <c r="B23" t="s">
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1797,8 +1861,8 @@
       <c r="A24" s="1">
         <v>44389</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="B24" t="s">
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1808,8 +1872,11 @@
       <c r="A25" s="1">
         <v>44390</v>
       </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
@@ -1819,19 +1886,19 @@
       <c r="A26" s="1">
         <v>44391</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44392</v>
       </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1839,10 +1906,10 @@
         <v>44393</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1850,18 +1917,21 @@
         <v>44394</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44395</v>
       </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1869,10 +1939,34 @@
         <v>44396</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44397</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44398</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44399</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8973A-22B2-47F5-BFD5-8FB3CC03BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C34877-7AF5-4BAE-9156-FB48152B11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-25012" yWindow="2370" windowWidth="15390" windowHeight="11430" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="116">
   <si>
     <t>Source</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Q11</t>
   </si>
   <si>
-    <t>Queensland (Brisbane Airport)</t>
-  </si>
-  <si>
     <t>Brisbane Airport Worker</t>
   </si>
   <si>
@@ -292,73 +289,100 @@
     <t>Q29</t>
   </si>
   <si>
-    <t>#fbf8fb</t>
-  </si>
-  <si>
-    <t>#f7f1f7</t>
-  </si>
-  <si>
-    <t>#f3e9f4</t>
-  </si>
-  <si>
-    <t>#f0e2f0</t>
-  </si>
-  <si>
-    <t>#ecdbec</t>
-  </si>
-  <si>
-    <t>#e8d4e9</t>
-  </si>
-  <si>
-    <t>#e4cde5</t>
-  </si>
-  <si>
-    <t>#e0c6e1</t>
-  </si>
-  <si>
-    <t>#dcbfdd</t>
-  </si>
-  <si>
-    <t>#d8b8da</t>
-  </si>
-  <si>
-    <t>#d4b1d6</t>
-  </si>
-  <si>
     <t>#d0aad2</t>
   </si>
   <si>
-    <t>#cca3ce</t>
-  </si>
-  <si>
-    <t>#c89ccb</t>
-  </si>
-  <si>
-    <t>#c495c7</t>
-  </si>
-  <si>
-    <t>#c08ec3</t>
-  </si>
-  <si>
-    <t>#bb87c0</t>
-  </si>
-  <si>
-    <t>#b780bc</t>
-  </si>
-  <si>
-    <t>#b37ab8</t>
-  </si>
-  <si>
-    <t>#af73b5</t>
-  </si>
-  <si>
-    <t>#ab6cb1</t>
-  </si>
-  <si>
-    <t>#a765ad</t>
-  </si>
-  <si>
-    <t>#a25eaa</t>
+    <t>#fbf8fc</t>
+  </si>
+  <si>
+    <t>#f8f2f8</t>
+  </si>
+  <si>
+    <t>#f4ebf5</t>
+  </si>
+  <si>
+    <t>#f1e4f1</t>
+  </si>
+  <si>
+    <t>#eddeee</t>
+  </si>
+  <si>
+    <t>#ead7ea</t>
+  </si>
+  <si>
+    <t>#e6d1e7</t>
+  </si>
+  <si>
+    <t>#e2cae3</t>
+  </si>
+  <si>
+    <t>#dfc4e0</t>
+  </si>
+  <si>
+    <t>#dbbddc</t>
+  </si>
+  <si>
+    <t>#d7b7d9</t>
+  </si>
+  <si>
+    <t>#d4b0d6</t>
+  </si>
+  <si>
+    <t>#cca3cf</t>
+  </si>
+  <si>
+    <t>#c89dcb</t>
+  </si>
+  <si>
+    <t>#c597c8</t>
+  </si>
+  <si>
+    <t>#c190c5</t>
+  </si>
+  <si>
+    <t>#bd8ac1</t>
+  </si>
+  <si>
+    <t>#b984be</t>
+  </si>
+  <si>
+    <t>#b57dba</t>
+  </si>
+  <si>
+    <t>#b277b7</t>
+  </si>
+  <si>
+    <t>#ae71b4</t>
+  </si>
+  <si>
+    <t>#aa6ab0</t>
+  </si>
+  <si>
+    <t>#a664ad</t>
+  </si>
+  <si>
+    <t>#a25da9</t>
+  </si>
+  <si>
+    <t>U1 12yo</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Awaiting genomics</t>
+  </si>
+  <si>
+    <t>W2 m</t>
+  </si>
+  <si>
+    <t>Airport Outbreak 2</t>
+  </si>
+  <si>
+    <t>Airport Outbreak</t>
+  </si>
+  <si>
+    <t>P1 w</t>
   </si>
 </sst>
 </file>
@@ -428,8 +452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0">
-  <autoFilter ref="A1:H34" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0">
+  <autoFilter ref="A1:H37" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -754,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -813,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -836,7 +860,7 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -859,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -882,7 +906,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -905,7 +929,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -925,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -945,7 +969,7 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -968,7 +992,7 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -991,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1014,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1037,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1060,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1080,7 +1104,7 @@
         <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1088,22 +1112,22 @@
         <v>44378</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1114,7 +1138,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -1126,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1134,22 +1158,22 @@
         <v>44379</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1157,22 +1181,22 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
       <c r="G18" t="s">
         <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1180,10 +1204,10 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -1195,7 +1219,7 @@
         <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1203,10 +1227,10 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1215,7 +1239,7 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1223,22 +1247,22 @@
         <v>44380</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1246,22 +1270,22 @@
         <v>44380</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
       <c r="G22" t="s">
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1269,22 +1293,22 @@
         <v>44380</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1292,22 +1316,22 @@
         <v>44381</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1315,22 +1339,22 @@
         <v>44382</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
       <c r="G25" t="s">
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1338,10 +1362,10 @@
         <v>44382</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -1353,7 +1377,7 @@
         <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1361,10 +1385,10 @@
         <v>44382</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -1376,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1384,10 +1408,10 @@
         <v>44382</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1396,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1404,11 +1428,11 @@
         <v>44383</v>
       </c>
       <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1424,10 +1448,10 @@
         <v>44384</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -1436,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -1444,10 +1468,10 @@
         <v>44385</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -1456,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1464,10 +1488,10 @@
         <v>44385</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
@@ -1476,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1484,22 +1508,22 @@
         <v>44390</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
       <c r="G33" t="s">
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -1507,21 +1531,81 @@
         <v>44390</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
       <c r="G34" t="s">
         <v>40</v>
       </c>
       <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1539,7 +1623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1731,7 +1817,7 @@
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1745,7 +1831,7 @@
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1759,7 +1845,7 @@
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1773,7 +1859,7 @@
         <v>44382</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1787,7 +1873,7 @@
         <v>44383</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1801,7 +1887,7 @@
         <v>44384</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1815,7 +1901,7 @@
         <v>44385</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1829,7 +1915,7 @@
         <v>44386</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1840,7 +1926,7 @@
         <v>44387</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1851,7 +1937,7 @@
         <v>44388</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1862,7 +1948,7 @@
         <v>44389</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1873,7 +1959,7 @@
         <v>44390</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1886,6 +1972,9 @@
       <c r="A26" s="1">
         <v>44391</v>
       </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
@@ -1894,8 +1983,11 @@
       <c r="A27" s="1">
         <v>44392</v>
       </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1904,9 +1996,6 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44393</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>

--- a/2021-06 QLD Outbreak Paths.xlsx
+++ b/2021-06 QLD Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C34877-7AF5-4BAE-9156-FB48152B11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6371B2BF-AAD2-4EB5-A6A2-2B065B6321B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25012" yWindow="2370" windowWidth="15390" windowHeight="11430" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
   <si>
     <t>Source</t>
   </si>
@@ -289,93 +289,12 @@
     <t>Q29</t>
   </si>
   <si>
-    <t>#d0aad2</t>
-  </si>
-  <si>
-    <t>#fbf8fc</t>
-  </si>
-  <si>
     <t>#f8f2f8</t>
   </si>
   <si>
-    <t>#f4ebf5</t>
-  </si>
-  <si>
-    <t>#f1e4f1</t>
-  </si>
-  <si>
-    <t>#eddeee</t>
-  </si>
-  <si>
-    <t>#ead7ea</t>
-  </si>
-  <si>
-    <t>#e6d1e7</t>
-  </si>
-  <si>
-    <t>#e2cae3</t>
-  </si>
-  <si>
-    <t>#dfc4e0</t>
-  </si>
-  <si>
-    <t>#dbbddc</t>
-  </si>
-  <si>
-    <t>#d7b7d9</t>
-  </si>
-  <si>
-    <t>#d4b0d6</t>
-  </si>
-  <si>
-    <t>#cca3cf</t>
-  </si>
-  <si>
-    <t>#c89dcb</t>
-  </si>
-  <si>
-    <t>#c597c8</t>
-  </si>
-  <si>
-    <t>#c190c5</t>
-  </si>
-  <si>
-    <t>#bd8ac1</t>
-  </si>
-  <si>
-    <t>#b984be</t>
-  </si>
-  <si>
-    <t>#b57dba</t>
-  </si>
-  <si>
-    <t>#b277b7</t>
-  </si>
-  <si>
-    <t>#ae71b4</t>
-  </si>
-  <si>
-    <t>#aa6ab0</t>
-  </si>
-  <si>
-    <t>#a664ad</t>
-  </si>
-  <si>
     <t>#a25da9</t>
   </si>
   <si>
-    <t>U1 12yo</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Awaiting genomics</t>
-  </si>
-  <si>
-    <t>W2 m</t>
-  </si>
-  <si>
     <t>Airport Outbreak 2</t>
   </si>
   <si>
@@ -383,6 +302,90 @@
   </si>
   <si>
     <t>P1 w</t>
+  </si>
+  <si>
+    <t>#fcf9fc</t>
+  </si>
+  <si>
+    <t>#f5ecf5</t>
+  </si>
+  <si>
+    <t>#f1e5f2</t>
+  </si>
+  <si>
+    <t>#eedfee</t>
+  </si>
+  <si>
+    <t>#ead9eb</t>
+  </si>
+  <si>
+    <t>#e7d2e8</t>
+  </si>
+  <si>
+    <t>#e3cce4</t>
+  </si>
+  <si>
+    <t>#e0c6e1</t>
+  </si>
+  <si>
+    <t>#dcc0de</t>
+  </si>
+  <si>
+    <t>#d9b9da</t>
+  </si>
+  <si>
+    <t>#d5b3d7</t>
+  </si>
+  <si>
+    <t>#d2add4</t>
+  </si>
+  <si>
+    <t>#cea7d1</t>
+  </si>
+  <si>
+    <t>#caa1cd</t>
+  </si>
+  <si>
+    <t>#c79aca</t>
+  </si>
+  <si>
+    <t>#c394c7</t>
+  </si>
+  <si>
+    <t>#c08ec3</t>
+  </si>
+  <si>
+    <t>#bc88c0</t>
+  </si>
+  <si>
+    <t>#b882bd</t>
+  </si>
+  <si>
+    <t>#b57cba</t>
+  </si>
+  <si>
+    <t>#b176b6</t>
+  </si>
+  <si>
+    <t>#ad70b3</t>
+  </si>
+  <si>
+    <t>#a96ab0</t>
+  </si>
+  <si>
+    <t>#a663ad</t>
+  </si>
+  <si>
+    <t>N1 12yo</t>
+  </si>
+  <si>
+    <t>N2 m</t>
+  </si>
+  <si>
+    <t>N3 w</t>
+  </si>
+  <si>
+    <t>NSW Quarantine</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0">
-  <autoFilter ref="A1:H37" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H38" totalsRowShown="0">
+  <autoFilter ref="A1:H38" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1118,7 +1121,7 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -1164,7 +1167,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -1554,16 +1557,16 @@
         <v>44392</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
         <v>63</v>
@@ -1574,16 +1577,19 @@
         <v>44392</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
         <v>63</v>
@@ -1594,19 +1600,42 @@
         <v>44392</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1623,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1652,7 +1681,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1666,7 +1695,7 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1680,7 +1709,7 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -1694,7 +1723,7 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1708,7 +1737,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1722,7 +1751,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1736,7 +1765,7 @@
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1747,7 +1776,7 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1761,7 +1790,7 @@
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1775,7 +1804,7 @@
         <v>44376</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1789,7 +1818,7 @@
         <v>44377</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1803,7 +1832,7 @@
         <v>44378</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1817,7 +1846,7 @@
         <v>44379</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1831,7 +1860,7 @@
         <v>44380</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1845,7 +1874,7 @@
         <v>44381</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1859,7 +1888,7 @@
         <v>44382</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1873,7 +1902,7 @@
         <v>44383</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1887,7 +1916,7 @@
         <v>44384</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1901,7 +1930,7 @@
         <v>44385</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1915,7 +1944,7 @@
         <v>44386</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1926,7 +1955,7 @@
         <v>44387</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1937,7 +1966,7 @@
         <v>44388</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1948,7 +1977,7 @@
         <v>44389</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1959,7 +1988,7 @@
         <v>44390</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1973,7 +2002,7 @@
         <v>44391</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1984,7 +2013,7 @@
         <v>44392</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1997,6 +2026,12 @@
       <c r="A28" s="1">
         <v>44393</v>
       </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
@@ -2004,9 +2039,6 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44394</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
